--- a/Курсовая Электроника/Бульбулятор.xlsx
+++ b/Курсовая Электроника/Бульбулятор.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95CE4D6-57A6-4DC8-83C3-3ADDE58DABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC71CD7-1D89-4C98-9779-F7ED666CFC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="744" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Не мое" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="60">
   <si>
     <t xml:space="preserve">Uн = </t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Пульсации</t>
+  </si>
+  <si>
+    <t>мA</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1492,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525DB610-08EE-4F11-AC62-9D6A754B5711}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1532,7 @@
       </c>
       <c r="H1" s="7">
         <f>F1 * B33</f>
-        <v>8.7500000000000002E-4</v>
+        <v>0.75012500000000004</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
@@ -1553,7 +1556,7 @@
       </c>
       <c r="H2" s="3">
         <f>B1/H1</f>
-        <v>12571.428571428571</v>
+        <v>14.664222629561738</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>31</v>
@@ -1578,7 +1581,7 @@
       </c>
       <c r="H3" s="3">
         <f>H2-H4</f>
-        <v>5942.8571428571431</v>
+        <v>6.9321779703382767</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>31</v>
@@ -1601,7 +1604,7 @@
       </c>
       <c r="H4" s="3">
         <f>B31/B1*H2</f>
-        <v>6628.5714285714275</v>
+        <v>7.7320446592234617</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>31</v>
@@ -1793,7 +1796,7 @@
       </c>
       <c r="H12" s="3">
         <f>(B2*B1*H11)/(B1*B2 + B2*B12 + B27*B28 + B19*B2)*100</f>
-        <v>37.024628546050934</v>
+        <v>13.343854161109064</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -1834,7 +1837,7 @@
       </c>
       <c r="H14" s="3">
         <f>H15/(1+H16)</f>
-        <v>0.48180301434354611</v>
+        <v>4594.1069025473198</v>
       </c>
       <c r="I14" s="10"/>
     </row>
@@ -1860,7 +1863,7 @@
       </c>
       <c r="H15" s="3">
         <f>H20/B8</f>
-        <v>5.0376140350877199</v>
+        <v>4650.4927719298248</v>
       </c>
       <c r="I15" s="10"/>
     </row>
@@ -1883,7 +1886,7 @@
       </c>
       <c r="H16" s="3">
         <f>((H4/H2)/B20)*((B29*B4*(1+B15)/(B29+B4*(1+B15))))</f>
-        <v>9.4557544994844847</v>
+        <v>1.2273521400044146E-2</v>
       </c>
       <c r="I16" s="10"/>
     </row>
@@ -1892,11 +1895,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <f>B2/B15</f>
-        <v>6.0000000000000001E-3</v>
+        <f>B2*1000/B15</f>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
@@ -1924,7 +1927,7 @@
       </c>
       <c r="H18" s="3">
         <f>B8/B29</f>
-        <v>1.3684210526315791E-3</v>
+        <v>1.2632631578947369</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>2</v>
@@ -1948,7 +1951,7 @@
       </c>
       <c r="H19" s="3">
         <f>H18*(1+B15)</f>
-        <v>0.34347368421052638</v>
+        <v>317.07905263157897</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>2</v>
@@ -1972,7 +1975,7 @@
       </c>
       <c r="H20" s="3">
         <f>H19*B4</f>
-        <v>2.5188070175438599</v>
+        <v>2325.2463859649124</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>3</v>
@@ -1984,7 +1987,7 @@
       </c>
       <c r="B21" s="3">
         <f>B18+B17</f>
-        <v>7.0000000000000001E-3</v>
+        <v>6.0010000000000003</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
@@ -2012,7 +2015,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="24">
         <f>H14*B8 * 1000</f>
-        <v>240.90150717177306</v>
+        <v>2297053.4512736597</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
@@ -2047,7 +2050,7 @@
       </c>
       <c r="H24" s="3">
         <f>B8/H16</f>
-        <v>5.2877853377777451E-2</v>
+        <v>40.738104713631863</v>
       </c>
       <c r="I24" s="10"/>
     </row>
@@ -2104,7 +2107,7 @@
       </c>
       <c r="B28" s="3">
         <f>B17+B21</f>
-        <v>1.3000000000000001E-2</v>
+        <v>12.001000000000001</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2</v>
@@ -2122,7 +2125,7 @@
       </c>
       <c r="B29" s="3">
         <f>B27/B28</f>
-        <v>365.38461538461536</v>
+        <v>0.39580034997083574</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -2190,7 +2193,7 @@
       </c>
       <c r="B33" s="14">
         <f>(B21/B32)</f>
-        <v>5.8333333333333333E-5</v>
+        <v>5.0008333333333335E-2</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>2</v>
@@ -2212,7 +2215,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2248,7 +2251,7 @@
       </c>
       <c r="H1" s="7">
         <f>F1 * B33</f>
-        <v>8.7500000000000002E-4</v>
+        <v>0.75012500000000004</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
@@ -2272,7 +2275,7 @@
       </c>
       <c r="H2" s="3">
         <f>B1/H1</f>
-        <v>11428.571428571428</v>
+        <v>13.331111481419763</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>31</v>
@@ -2297,7 +2300,7 @@
       </c>
       <c r="H3" s="3">
         <f>H2-H4</f>
-        <v>4800</v>
+        <v>5.5990668221963009</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>31</v>
@@ -2320,7 +2323,7 @@
       </c>
       <c r="H4" s="3">
         <f>B31/B1*H2</f>
-        <v>6628.5714285714275</v>
+        <v>7.7320446592234617</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>31</v>
@@ -2512,7 +2515,7 @@
       </c>
       <c r="H12" s="3">
         <f>(B2*B1*H11)/(B1*B2 + B2*B12 + B27*B28 + B19*B2)*100</f>
-        <v>35.751526888127515</v>
+        <v>12.833538313459169</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -2553,7 +2556,7 @@
       </c>
       <c r="H14" s="3">
         <f>H15/(1+H16)</f>
-        <v>0.44819504714726144</v>
+        <v>4406.2374794785546</v>
       </c>
       <c r="I14" s="10"/>
     </row>
@@ -2579,7 +2582,7 @@
       </c>
       <c r="H15" s="3">
         <f>H20/B8</f>
-        <v>4.8340740740740742</v>
+        <v>4462.5940740740753</v>
       </c>
       <c r="I15" s="10"/>
     </row>
@@ -2602,7 +2605,7 @@
       </c>
       <c r="H16" s="3">
         <f>((H4/H2)/B20)*((B29*B4*(1+B15)/(B29+B4*(1+B15))))</f>
-        <v>9.7856481343172099</v>
+        <v>1.2790185471844037E-2</v>
       </c>
       <c r="I16" s="10"/>
     </row>
@@ -2611,11 +2614,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <f>B2/B15</f>
-        <v>6.0000000000000001E-3</v>
+        <f>B2*1000/B15</f>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
@@ -2643,7 +2646,7 @@
       </c>
       <c r="H18" s="3">
         <f>B8/B29</f>
-        <v>1.4444444444444446E-3</v>
+        <v>1.3334444444444447</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>2</v>
@@ -2667,7 +2670,7 @@
       </c>
       <c r="H19" s="3">
         <f>H18*(1+B15)</f>
-        <v>0.36255555555555558</v>
+        <v>334.69455555555561</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>2</v>
@@ -2691,7 +2694,7 @@
       </c>
       <c r="H20" s="3">
         <f>H19*B4</f>
-        <v>2.4170370370370371</v>
+        <v>2231.2970370370376</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>3</v>
@@ -2703,7 +2706,7 @@
       </c>
       <c r="B21" s="3">
         <f>B18+B17</f>
-        <v>7.0000000000000001E-3</v>
+        <v>6.0010000000000003</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
@@ -2731,7 +2734,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="24">
         <f>H14*B8 * 1000</f>
-        <v>224.09752357363072</v>
+        <v>2203118.7397392774</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
@@ -2766,7 +2769,7 @@
       </c>
       <c r="H24" s="3">
         <f>B8/H16</f>
-        <v>5.1095235914579235E-2</v>
+        <v>39.092474546259417</v>
       </c>
       <c r="I24" s="10"/>
     </row>
@@ -2823,7 +2826,7 @@
       </c>
       <c r="B28" s="3">
         <f>B17+B21</f>
-        <v>1.3000000000000001E-2</v>
+        <v>12.001000000000001</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2</v>
@@ -2841,7 +2844,7 @@
       </c>
       <c r="B29" s="3">
         <f>B27/B28</f>
-        <v>346.15384615384613</v>
+        <v>0.37496875260394963</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -2909,7 +2912,7 @@
       </c>
       <c r="B33" s="14">
         <f>(B21/B32)</f>
-        <v>5.8333333333333333E-5</v>
+        <v>5.0008333333333335E-2</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>2</v>

--- a/Курсовая Электроника/Бульбулятор.xlsx
+++ b/Курсовая Электроника/Бульбулятор.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC71CD7-1D89-4C98-9779-F7ED666CFC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738B7B51-483A-48B4-84B2-F6E6628CE2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="744" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Не мое" sheetId="1" r:id="rId1"/>
     <sheet name="Мое" sheetId="2" r:id="rId2"/>
     <sheet name="Лурье" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,9 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="61">
   <si>
     <t xml:space="preserve">Uн = </t>
   </si>
@@ -210,6 +211,9 @@
   </si>
   <si>
     <t>мA</t>
+  </si>
+  <si>
+    <t>(мA) из данных стабилитрона</t>
   </si>
 </sst>
 </file>
@@ -776,21 +780,21 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -818,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -842,7 +846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
@@ -867,7 +871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
@@ -890,7 +894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -912,7 +916,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -937,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -961,7 +965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -985,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1061,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1080,7 +1084,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1102,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1121,7 +1125,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
@@ -1147,7 +1151,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1174,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +1192,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
@@ -1261,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -1279,7 +1283,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -1300,7 +1304,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1311,7 +1315,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -1334,7 +1338,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -1352,7 +1356,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1363,7 +1367,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -1381,7 +1385,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -1399,7 +1403,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
@@ -1417,7 +1421,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
@@ -1434,7 +1438,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -1452,7 +1456,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +1471,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
@@ -1495,22 +1499,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525DB610-08EE-4F11-AC62-9D6A754B5711}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1532,13 +1536,13 @@
       </c>
       <c r="H1" s="7">
         <f>F1 * B33</f>
-        <v>0.75012500000000004</v>
+        <v>1.75</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
@@ -1556,13 +1560,13 @@
       </c>
       <c r="H2" s="3">
         <f>B1/H1</f>
-        <v>14.664222629561738</v>
+        <v>6.2857142857142856</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -1581,13 +1585,13 @@
       </c>
       <c r="H3" s="3">
         <f>H2-H4</f>
-        <v>6.9321779703382767</v>
+        <v>2.9714285714285715</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
@@ -1604,13 +1608,13 @@
       </c>
       <c r="H4" s="3">
         <f>B31/B1*H2</f>
-        <v>7.7320446592234617</v>
+        <v>3.3142857142857141</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -1632,7 +1636,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1730,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1777,7 +1781,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1796,11 +1800,11 @@
       </c>
       <c r="H12" s="3">
         <f>(B2*B1*H11)/(B1*B2 + B2*B12 + B27*B28 + B19*B2)*100</f>
-        <v>13.343854161109064</v>
+        <v>12.668621700879765</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1818,7 +1822,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1837,11 +1841,11 @@
       </c>
       <c r="H14" s="3">
         <f>H15/(1+H16)</f>
-        <v>4594.1069025473198</v>
+        <v>4981.1746579214341</v>
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
@@ -1863,11 +1867,11 @@
       </c>
       <c r="H15" s="3">
         <f>H20/B8</f>
-        <v>4650.4927719298248</v>
+        <v>5037.6140350877185</v>
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1886,11 +1890,11 @@
       </c>
       <c r="H16" s="3">
         <f>((H4/H2)/B20)*((B29*B4*(1+B15)/(B29+B4*(1+B15))))</f>
-        <v>1.2273521400044146E-2</v>
+        <v>1.133053567526084E-2</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1908,16 +1912,15 @@
       <c r="H17" s="3"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <f>1 * 10^-3</f>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="9"/>
@@ -1927,13 +1930,13 @@
       </c>
       <c r="H18" s="3">
         <f>B8/B29</f>
-        <v>1.2632631578947369</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
@@ -1951,13 +1954,13 @@
       </c>
       <c r="H19" s="3">
         <f>H18*(1+B15)</f>
-        <v>317.07905263157897</v>
+        <v>343.4736842105263</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
@@ -1975,22 +1978,22 @@
       </c>
       <c r="H20" s="3">
         <f>H19*B4</f>
-        <v>2325.2463859649124</v>
+        <v>2518.8070175438593</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3">
         <f>B18+B17</f>
-        <v>6.0010000000000003</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
@@ -1999,7 +2002,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -2015,12 +2018,12 @@
       <c r="F22" s="10"/>
       <c r="G22" s="24">
         <f>H14*B8 * 1000</f>
-        <v>2297053.4512736597</v>
+        <v>2490587.3289607172</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2031,7 +2034,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -2050,11 +2053,11 @@
       </c>
       <c r="H24" s="3">
         <f>B8/H16</f>
-        <v>40.738104713631863</v>
+        <v>44.128540285319701</v>
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -2072,7 +2075,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2083,7 +2086,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -2101,16 +2104,16 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3">
         <f>B17+B21</f>
-        <v>12.001000000000001</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
@@ -2119,13 +2122,13 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="3">
         <f>B27/B28</f>
-        <v>0.39580034997083574</v>
+        <v>0.36538461538461536</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -2137,7 +2140,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
@@ -2154,7 +2157,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -2172,12 +2175,12 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="10"/>
@@ -2187,13 +2190,13 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="14">
         <f>(B21/B32)</f>
-        <v>5.0008333333333335E-2</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>2</v>
@@ -2214,22 +2217,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0DADD0-25D6-4804-A06C-92AFCF3FA1E7}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -2250,14 +2253,14 @@
         <v>36</v>
       </c>
       <c r="H1" s="7">
-        <f>F1 * B33</f>
-        <v>0.75012500000000004</v>
+        <f>F1 * B33 + 0.05</f>
+        <v>1.8</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
@@ -2275,13 +2278,13 @@
       </c>
       <c r="H2" s="3">
         <f>B1/H1</f>
-        <v>13.331111481419763</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -2300,13 +2303,13 @@
       </c>
       <c r="H3" s="3">
         <f>H2-H4</f>
-        <v>5.5990668221963009</v>
+        <v>0.6111111111111116</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
@@ -2323,13 +2326,13 @@
       </c>
       <c r="H4" s="3">
         <f>B31/B1*H2</f>
-        <v>7.7320446592234617</v>
+        <v>4.9444444444444438</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2354,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -2496,7 +2499,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -2515,11 +2518,11 @@
       </c>
       <c r="H12" s="3">
         <f>(B2*B1*H11)/(B1*B2 + B2*B12 + B27*B28 + B19*B2)*100</f>
-        <v>12.833538313459169</v>
+        <v>11.57556270096463</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -2537,7 +2540,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -2556,11 +2559,11 @@
       </c>
       <c r="H14" s="3">
         <f>H15/(1+H16)</f>
-        <v>4406.2374794785546</v>
+        <v>0.12003448998893547</v>
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
@@ -2582,11 +2585,11 @@
       </c>
       <c r="H15" s="3">
         <f>H20/B8</f>
-        <v>4462.5940740740753</v>
+        <v>4.8340740740740742</v>
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2605,11 +2608,11 @@
       </c>
       <c r="H16" s="3">
         <f>((H4/H2)/B20)*((B29*B4*(1+B15)/(B29+B4*(1+B15))))</f>
-        <v>1.2790185471844037E-2</v>
+        <v>39.272375669023702</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -2627,16 +2630,15 @@
       <c r="H17" s="3"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <f>1 * 10^-3</f>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="9"/>
@@ -2646,18 +2648,18 @@
       </c>
       <c r="H18" s="3">
         <f>B8/B29</f>
-        <v>1.3334444444444447</v>
+        <v>1.4444444444444446E-3</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>5.0999999999999996</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -2670,18 +2672,18 @@
       </c>
       <c r="H19" s="3">
         <f>H18*(1+B15)</f>
-        <v>334.69455555555561</v>
+        <v>0.36255555555555558</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="1">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
@@ -2694,22 +2696,22 @@
       </c>
       <c r="H20" s="3">
         <f>H19*B4</f>
-        <v>2231.2970370370376</v>
+        <v>2.4170370370370371</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3">
         <f>B18+B17</f>
-        <v>6.0010000000000003</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
@@ -2718,13 +2720,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3">
         <f>B16-B19</f>
-        <v>5.4</v>
+        <v>2.3000000000000007</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>3</v>
@@ -2734,12 +2736,12 @@
       <c r="F22" s="10"/>
       <c r="G22" s="24">
         <f>H14*B8 * 1000</f>
-        <v>2203118.7397392774</v>
+        <v>60.017244994467738</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2750,7 +2752,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -2769,11 +2771,11 @@
       </c>
       <c r="H24" s="3">
         <f>B8/H16</f>
-        <v>39.092474546259417</v>
+        <v>1.2731595465827082E-2</v>
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -2791,7 +2793,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2802,7 +2804,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -2820,16 +2822,16 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3">
         <f>B17+B21</f>
-        <v>12.001000000000001</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
@@ -2838,13 +2840,13 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="3">
-        <f>B27/B28</f>
-        <v>0.37496875260394963</v>
+        <f>B27/B28*1000</f>
+        <v>346.15384615384613</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -2856,7 +2858,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
@@ -2873,13 +2875,13 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="3">
         <f>B19+B30</f>
-        <v>5.8</v>
+        <v>8.8999999999999986</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>3</v>
@@ -2891,12 +2893,12 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="10"/>
@@ -2906,13 +2908,13 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="14">
         <f>(B21/B32)</f>
-        <v>5.0008333333333335E-2</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>2</v>
@@ -2926,5 +2928,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Курсовая Электроника/Бульбулятор.xlsx
+++ b/Курсовая Электроника/Бульбулятор.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738B7B51-483A-48B4-84B2-F6E6628CE2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD71053-9D7F-4032-A584-D7BE9D1A95DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="744" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Не мое" sheetId="1" r:id="rId1"/>
     <sheet name="Мое" sheetId="2" r:id="rId2"/>
     <sheet name="Лурье" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="62">
   <si>
     <t xml:space="preserve">Uн = </t>
   </si>
@@ -214,13 +212,16 @@
   </si>
   <si>
     <t>(мA) из данных стабилитрона</t>
+  </si>
+  <si>
+    <t>Контроль dU выпр</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +237,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +284,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -461,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -497,6 +513,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -779,22 +804,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -822,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -846,7 +871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
@@ -871,7 +896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
@@ -894,7 +919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -916,7 +941,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -941,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -965,7 +990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -989,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1086,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1109,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1102,7 +1127,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1125,7 +1150,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1176,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1174,7 +1199,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1192,7 +1217,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
@@ -1217,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
@@ -1241,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
@@ -1265,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -1283,7 +1308,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1329,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1315,7 +1340,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -1338,7 +1363,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -1356,7 +1381,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1367,7 +1392,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -1385,7 +1410,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +1428,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1446,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
@@ -1438,7 +1463,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -1456,7 +1481,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
@@ -1471,7 +1496,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
@@ -1503,18 +1528,18 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
@@ -1566,7 +1591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
@@ -1614,7 +1639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -1636,7 +1661,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -1661,7 +1686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1685,7 +1710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1734,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1759,7 +1784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1781,7 +1806,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1804,7 +1829,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1822,7 +1847,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1845,7 +1870,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
@@ -1871,7 +1896,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1894,7 +1919,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +1937,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
@@ -1936,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
@@ -1960,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
@@ -1984,7 +2009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -2002,7 +2027,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -2023,7 +2048,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2034,7 +2059,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -2057,7 +2082,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -2075,7 +2100,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2086,7 +2111,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -2104,7 +2129,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -2122,7 +2147,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
@@ -2140,7 +2165,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
@@ -2157,7 +2182,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -2175,7 +2200,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
@@ -2190,7 +2215,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
@@ -2217,22 +2242,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0DADD0-25D6-4804-A06C-92AFCF3FA1E7}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="36" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="29">
@@ -2260,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
@@ -2284,7 +2310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -2309,7 +2335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
@@ -2332,7 +2358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -2354,7 +2380,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -2372,14 +2398,14 @@
         <v>44</v>
       </c>
       <c r="H6" s="2">
-        <f>H5*B30</f>
-        <v>1.0499999999999998</v>
+        <f>H5*B30-0.05</f>
+        <v>0.99999999999999978</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -2397,13 +2423,13 @@
       </c>
       <c r="H7" s="3">
         <f>0.5*H6*B2</f>
-        <v>0.78749999999999987</v>
+        <v>0.74999999999999978</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -2421,13 +2447,13 @@
       </c>
       <c r="H8" s="3">
         <f xml:space="preserve"> H9-2*H6</f>
-        <v>13.7</v>
+        <v>13.799999999999999</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -2452,7 +2478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -2471,13 +2497,13 @@
       </c>
       <c r="H10" s="3">
         <f>1.2*B2*(B1+2*H6)</f>
-        <v>21.779999999999998</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -2495,11 +2521,11 @@
         <v>49</v>
       </c>
       <c r="H11" s="1">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -2517,12 +2543,12 @@
         <v>48</v>
       </c>
       <c r="H12" s="3">
-        <f>(B2*B1*H11)/(B1*B2 + B2*B12 + B27*B28 + B19*B2)*100</f>
-        <v>11.57556270096463</v>
+        <f>(B2*B1*H11)/(B1*B2 + B12*B2 + B27*(B28/1000)+ B19*B2)*100</f>
+        <v>38.297689229312795</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -2540,7 +2566,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -2563,7 +2589,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
@@ -2589,7 +2615,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2612,7 +2638,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -2626,18 +2652,23 @@
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="37">
+        <f>(B2*B24)/B25</f>
+        <v>0.5</v>
+      </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="35" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="22"/>
@@ -2654,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
@@ -2678,7 +2709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
@@ -2702,7 +2733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -2720,7 +2751,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -2741,7 +2772,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2752,7 +2783,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -2766,16 +2797,16 @@
       <c r="D24" s="10"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="39">
         <f>B8/H16</f>
         <v>1.2731595465827082E-2</v>
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -2793,7 +2824,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2804,7 +2835,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -2818,11 +2849,10 @@
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="24"/>
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -2840,7 +2870,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
@@ -2858,7 +2888,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
@@ -2875,7 +2905,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -2893,7 +2923,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
@@ -2908,7 +2938,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>

--- a/Курсовая Электроника/Бульбулятор.xlsx
+++ b/Курсовая Электроника/Бульбулятор.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD71053-9D7F-4032-A584-D7BE9D1A95DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E3F614-3A70-4F1B-9604-0CB049DE2D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="744" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Не мое" sheetId="1" r:id="rId1"/>
     <sheet name="Мое" sheetId="2" r:id="rId2"/>
     <sheet name="Лурье" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="62">
   <si>
     <t xml:space="preserve">Uн = </t>
   </si>
@@ -808,18 +810,18 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -847,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -871,7 +873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
@@ -896,7 +898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
@@ -919,7 +921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -941,7 +943,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -966,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -990,7 +992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +1041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1086,7 +1088,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1109,7 +1111,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1127,7 +1129,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1152,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
@@ -1176,7 +1178,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1199,7 +1201,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1217,7 +1219,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
@@ -1266,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
@@ -1290,7 +1292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -1308,7 +1310,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -1329,7 +1331,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1340,7 +1342,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1365,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -1381,7 +1383,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1392,7 +1394,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -1410,7 +1412,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -1428,7 +1430,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
@@ -1446,7 +1448,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
@@ -1463,7 +1465,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -1481,7 +1483,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
@@ -1496,7 +1498,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
@@ -1524,22 +1526,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525DB610-08EE-4F11-AC62-9D6A754B5711}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="36" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="29">
@@ -1560,14 +1563,14 @@
         <v>36</v>
       </c>
       <c r="H1" s="7">
-        <f>F1 * B33</f>
-        <v>1.75</v>
+        <f>F1 * B33 + 0.05</f>
+        <v>1.8</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
@@ -1585,13 +1588,13 @@
       </c>
       <c r="H2" s="3">
         <f>B1/H1</f>
-        <v>6.2857142857142856</v>
+        <v>6.1111111111111107</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -1610,13 +1613,13 @@
       </c>
       <c r="H3" s="3">
         <f>H2-H4</f>
-        <v>2.9714285714285715</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
@@ -1633,13 +1636,13 @@
       </c>
       <c r="H4" s="3">
         <f>B31/B1*H2</f>
-        <v>3.3142857142857141</v>
+        <v>4.9444444444444438</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1664,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -1679,14 +1682,14 @@
         <v>44</v>
       </c>
       <c r="H6" s="2">
-        <f>H5*B30</f>
-        <v>1.0499999999999998</v>
+        <f>H5*B30-0.05</f>
+        <v>0.99999999999999978</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1704,13 +1707,13 @@
       </c>
       <c r="H7" s="3">
         <f>0.5*H6*B2</f>
-        <v>0.78749999999999987</v>
+        <v>0.74999999999999978</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -1728,13 +1731,13 @@
       </c>
       <c r="H8" s="3">
         <f xml:space="preserve"> H9-2*H6</f>
-        <v>14.85</v>
+        <v>14.95</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1778,13 +1781,13 @@
       </c>
       <c r="H10" s="3">
         <f>1.2*B2*(B1+2*H6)</f>
-        <v>23.58</v>
+        <v>23.4</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1802,11 +1805,11 @@
         <v>49</v>
       </c>
       <c r="H11" s="1">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1824,12 +1827,12 @@
         <v>48</v>
       </c>
       <c r="H12" s="3">
-        <f>(B2*B1*H11)/(B1*B2 + B2*B12 + B27*B28 + B19*B2)*100</f>
-        <v>12.668621700879765</v>
+        <f>(B2*B1*H11)/(B1*B2 + B12*B2 + B27*(B28/1000)+ B19*B2)*100</f>
+        <v>39.973595922339349</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1847,7 +1850,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1866,11 +1869,11 @@
       </c>
       <c r="H14" s="3">
         <f>H15/(1+H16)</f>
-        <v>4981.1746579214341</v>
+        <v>0.1293406324116726</v>
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
@@ -1892,11 +1895,11 @@
       </c>
       <c r="H15" s="3">
         <f>H20/B8</f>
-        <v>5037.6140350877185</v>
+        <v>5.0376140350877199</v>
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1915,11 +1918,11 @@
       </c>
       <c r="H16" s="3">
         <f>((H4/H2)/B20)*((B29*B4*(1+B15)/(B29+B4*(1+B15))))</f>
-        <v>1.133053567526084E-2</v>
+        <v>37.948425882546488</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1933,18 +1936,23 @@
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="37">
+        <f>(B2*B24)/B25</f>
+        <v>0.5</v>
+      </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="35" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="22"/>
@@ -1955,18 +1963,18 @@
       </c>
       <c r="H18" s="3">
         <f>B8/B29</f>
-        <v>1.368421052631579</v>
+        <v>1.3684210526315791E-3</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>5.0999999999999996</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1979,18 +1987,18 @@
       </c>
       <c r="H19" s="3">
         <f>H18*(1+B15)</f>
-        <v>343.4736842105263</v>
+        <v>0.34347368421052638</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="1">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
@@ -2003,13 +2011,13 @@
       </c>
       <c r="H20" s="3">
         <f>H19*B4</f>
-        <v>2518.8070175438593</v>
+        <v>2.5188070175438599</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -2027,13 +2035,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3">
         <f>B16-B19</f>
-        <v>6.4</v>
+        <v>3.3000000000000007</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>3</v>
@@ -2043,12 +2051,12 @@
       <c r="F22" s="10"/>
       <c r="G22" s="24">
         <f>H14*B8 * 1000</f>
-        <v>2490587.3289607172</v>
+        <v>64.670316205836301</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2059,7 +2067,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -2073,16 +2081,16 @@
       <c r="D24" s="10"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="39">
         <f>B8/H16</f>
-        <v>44.128540285319701</v>
+        <v>1.3175777080913482E-2</v>
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -2100,7 +2108,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2111,7 +2119,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -2125,11 +2133,10 @@
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="24"/>
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -2147,13 +2154,13 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="3">
-        <f>B27/B28</f>
-        <v>0.36538461538461536</v>
+        <f>B27/B28*1000</f>
+        <v>365.38461538461536</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -2165,7 +2172,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
@@ -2182,13 +2189,13 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="3">
         <f>B19+B30</f>
-        <v>5.8</v>
+        <v>8.8999999999999986</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>3</v>
@@ -2200,7 +2207,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
@@ -2215,7 +2222,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
@@ -2235,6 +2242,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2242,23 +2250,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0DADD0-25D6-4804-A06C-92AFCF3FA1E7}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
@@ -2310,7 +2318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -2380,7 +2388,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -2405,7 +2413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -2429,7 +2437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
@@ -2453,7 +2461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -2478,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -2503,7 +2511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -2525,7 +2533,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -2548,7 +2556,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -2566,7 +2574,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -2589,7 +2597,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
@@ -2615,7 +2623,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2638,7 +2646,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -2661,7 +2669,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
@@ -2685,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
@@ -2709,7 +2717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
@@ -2733,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -2751,7 +2759,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -2772,7 +2780,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2783,7 +2791,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -2806,7 +2814,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -2824,7 +2832,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2835,7 +2843,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -2852,7 +2860,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -2870,7 +2878,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
@@ -2888,7 +2896,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
@@ -2905,7 +2913,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -2923,7 +2931,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
@@ -2938,7 +2946,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>

--- a/Курсовая Электроника/Бульбулятор.xlsx
+++ b/Курсовая Электроника/Бульбулятор.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E3F614-3A70-4F1B-9604-0CB049DE2D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494FC549-6312-4A44-9897-94E94CE5674F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Не мое" sheetId="1" r:id="rId1"/>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525DB610-08EE-4F11-AC62-9D6A754B5711}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1537,7 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
@@ -2250,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0DADD0-25D6-4804-A06C-92AFCF3FA1E7}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,9 +2259,9 @@
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>

--- a/Курсовая Электроника/Бульбулятор.xlsx
+++ b/Курсовая Электроника/Бульбулятор.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494FC549-6312-4A44-9897-94E94CE5674F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5838DC18-8A84-4AB0-AF58-42B0F49626D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Не мое" sheetId="1" r:id="rId1"/>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
